--- a/inst/results/data_contam/PCBi/general_eval_PCBi_lw.xlsx
+++ b/inst/results/data_contam/PCBi/general_eval_PCBi_lw.xlsx
@@ -383,56 +383,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CB 28</t>
+          <t>CB 101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>→  →  green</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>↓  →  blue</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>↓  ↓  blue</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>↓  ↓  blue</t>
+          <t>↓  →  red</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CB 52</t>
+          <t>CB 118</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>↓  ↓  blue</t>
+          <t>→  →  orange</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>↓  ↓  blue</t>
+          <t>↓  →  orange</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>↓  ↓  yellow</t>
+          <t>↓  ↓  black</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CB 101</t>
+          <t>CB 138</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>→  →  green</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -442,95 +442,95 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>↓  ↓  red</t>
+          <t>↓  →  orange</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CB 118</t>
+          <t>CB 153</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>→  →  orange</t>
+          <t>→  →  blue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>↓  →  yellow</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>↓  ↓  black</t>
+          <t>↓  →  green</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CB 138</t>
+          <t>CB 180</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>↓  ↓  blue</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>↓  ↓  blue</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>↓  ↓  orange</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CB 153</t>
+          <t>CB 28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>→  →  blue</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>↓  ↓  blue</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>↓  ↓  green</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CB 180</t>
+          <t>CB 52</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>↓  ↓  blue</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>↓  ↓  blue</t>
+          <t>↓  →  blue</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>↓  →  blue</t>
+          <t>↓  ↓  yellow</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -560,60 +560,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>break_dates</t>
+          <t>rho</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>last_p_value</t>
+          <t>p.value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>last_slope</t>
+          <t>short_last_trend</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>short_last_trend</t>
+          <t>EAC_OSPAR_ng_g_lw</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>EAC_OSPAR</t>
+          <t>pvalue</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>UNITE</t>
+          <t>median_1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>EAC_OSPAR_ng_g_lw</t>
+          <t>median_2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>pvalue</t>
+          <t>long_term_trend</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>median_1</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>median_2</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>long_term_trend</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
@@ -627,167 +612,134 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CB 28</t>
+          <t>CB 101</t>
         </is>
       </c>
       <c r="C2">
-        <v>2013.999900464179</v>
+        <v>0.225</v>
       </c>
       <c r="D2">
-        <v>0.9452400827101515</v>
-      </c>
-      <c r="E2">
-        <v>0.040132</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G2">
-        <v>67</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.4189597083969276</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>121</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>129.9</v>
       </c>
       <c r="I2">
-        <v>67</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.00605</t>
-        </is>
-      </c>
-      <c r="K2">
-        <v>18.7</v>
-      </c>
-      <c r="L2">
-        <v>2.978</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>blue</t>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>green</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Loire</t>
+          <t>Gironde</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CB 28</t>
+          <t>CB 118</t>
         </is>
       </c>
       <c r="C3">
-        <v>1995.125805544656</v>
+        <v>0.04285714285714285</v>
       </c>
       <c r="D3">
-        <v>0.01832649512116185</v>
-      </c>
-      <c r="E3">
-        <v>-0.16812</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G3">
-        <v>67</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.8827957609366097</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.465</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>235.2</v>
       </c>
       <c r="I3">
-        <v>67</v>
+        <v>151.3</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.00333</t>
-        </is>
-      </c>
-      <c r="K3">
-        <v>9.651</v>
-      </c>
-      <c r="L3">
-        <v>2.47</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>blue</t>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>orange</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Seine</t>
+          <t>Gironde</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CB 28</t>
+          <t>CB 138</t>
         </is>
       </c>
       <c r="C4">
-        <v>2003.999422491496</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="D4">
-        <v>0.0008265097161637947</v>
-      </c>
-      <c r="E4">
-        <v>-3.4149</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>67</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.5755535979734246</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>317</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.00395</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>166.3</v>
       </c>
       <c r="I4">
-        <v>67</v>
+        <v>40.43</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.00617</t>
-        </is>
-      </c>
-      <c r="K4">
-        <v>93.95</v>
-      </c>
-      <c r="L4">
-        <v>18.05</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -801,51 +753,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CB 52</t>
+          <t>CB 153</t>
         </is>
       </c>
       <c r="C5">
-        <v>1994.99961464489</v>
+        <v>0.2035714285714285</v>
       </c>
       <c r="D5">
-        <v>0.0118158981489383</v>
-      </c>
-      <c r="E5">
-        <v>-0.9020899999999999</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G5">
-        <v>108</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.4657497111222544</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>1585</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>70.79000000000001</v>
       </c>
       <c r="I5">
-        <v>108</v>
+        <v>38.1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="K5">
-        <v>47.3</v>
-      </c>
-      <c r="L5">
-        <v>17.74</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -854,56 +795,45 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Loire</t>
+          <t>Gironde</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CB 52</t>
+          <t>CB 180</t>
         </is>
       </c>
       <c r="C6">
-        <v>1997.025223694159</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="D6">
-        <v>0.03866729993250079</v>
-      </c>
-      <c r="E6">
-        <v>-0.51008</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G6">
-        <v>108</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.4819142031439012</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>469</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>43.26</v>
       </c>
       <c r="I6">
-        <v>108</v>
+        <v>14.4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.00192</t>
-        </is>
-      </c>
-      <c r="K6">
-        <v>44.31</v>
-      </c>
-      <c r="L6">
-        <v>10.99</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -912,58 +842,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Seine</t>
+          <t>Gironde</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CB 52</t>
+          <t>CB 28</t>
         </is>
       </c>
       <c r="C7">
-        <v>2004.000021453548</v>
+        <v>-0.2364759631044413</v>
       </c>
       <c r="D7">
-        <v>0.001937750042849105</v>
-      </c>
-      <c r="E7">
-        <v>-26.007</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G7">
-        <v>108</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.3961349657159213</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>67</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.00605</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>18.7</v>
       </c>
       <c r="I7">
-        <v>108</v>
+        <v>2.978</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.00395</t>
-        </is>
-      </c>
-      <c r="K7">
-        <v>502.2</v>
-      </c>
-      <c r="L7">
-        <v>126.2</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>yellow</t>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>blue</t>
         </is>
       </c>
     </row>
@@ -975,53 +894,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CB 101</t>
+          <t>CB 52</t>
         </is>
       </c>
       <c r="C8">
-        <v>2014.837556328902</v>
+        <v>-0.09830209465959819</v>
       </c>
       <c r="D8">
-        <v>0.5987488440937727</v>
-      </c>
-      <c r="E8">
-        <v>4.7541</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G8">
-        <v>121</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.7274355135020973</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>108</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>47.3</v>
       </c>
       <c r="I8">
-        <v>121</v>
+        <v>17.74</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.0782</t>
-        </is>
-      </c>
-      <c r="K8">
-        <v>129.9</v>
-      </c>
-      <c r="L8">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>green</t>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>blue</t>
         </is>
       </c>
     </row>
@@ -1037,47 +945,36 @@
         </is>
       </c>
       <c r="C9">
-        <v>1997.947713770619</v>
+        <v>-0.4357459379615953</v>
       </c>
       <c r="D9">
-        <v>0.07904710428950518</v>
-      </c>
-      <c r="E9">
-        <v>-1.7028</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G9">
+        <v>0.091577240453504</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F9">
         <v>121</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>203.1</v>
       </c>
       <c r="I9">
-        <v>121</v>
+        <v>48.56</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.00195</t>
-        </is>
-      </c>
-      <c r="K9">
-        <v>203.1</v>
-      </c>
-      <c r="L9">
-        <v>45.79</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1086,116 +983,94 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Seine</t>
+          <t>Loire</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CB 101</t>
+          <t>CB 118</t>
         </is>
       </c>
       <c r="C10">
-        <v>2004.000094105784</v>
+        <v>-0.2909896602658789</v>
       </c>
       <c r="D10">
-        <v>0.0004008309104864284</v>
-      </c>
-      <c r="E10">
-        <v>-85.28100000000001</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G10">
-        <v>121</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.2742091207811866</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>632.4</v>
       </c>
       <c r="I10">
-        <v>121</v>
+        <v>152.5</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.00395</t>
-        </is>
-      </c>
-      <c r="K10">
-        <v>1492</v>
-      </c>
-      <c r="L10">
-        <v>470.3</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>red</t>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>orange</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gironde</t>
+          <t>Loire</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CB 118</t>
+          <t>CB 138</t>
         </is>
       </c>
       <c r="C11">
-        <v>2004.000011681978</v>
+        <v>-0.3175775480059084</v>
       </c>
       <c r="D11">
-        <v>0.06012278014357466</v>
-      </c>
-      <c r="E11">
-        <v>-2.8551</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G11">
-        <v>25</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.2306811648731318</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>317</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>264.8</v>
       </c>
       <c r="I11">
-        <v>25</v>
+        <v>38.57</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.465</t>
-        </is>
-      </c>
-      <c r="K11">
-        <v>235.2</v>
-      </c>
-      <c r="L11">
-        <v>151.3</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>orange</t>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>blue</t>
         </is>
       </c>
     </row>
@@ -1207,167 +1082,134 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CB 118</t>
+          <t>CB 153</t>
         </is>
       </c>
       <c r="C12">
-        <v>1996.127615227622</v>
+        <v>-0.4505169867060561</v>
       </c>
       <c r="D12">
-        <v>0.1971282117489219</v>
-      </c>
-      <c r="E12">
-        <v>-1.3481</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G12">
-        <v>25</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.07990637008305845</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>1585</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>71.05</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>19.6</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.00195</t>
-        </is>
-      </c>
-      <c r="K12">
-        <v>632.4</v>
-      </c>
-      <c r="L12">
-        <v>148</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>yellow</t>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>blue</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Seine</t>
+          <t>Loire</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CB 118</t>
+          <t>CB 180</t>
         </is>
       </c>
       <c r="C13">
-        <v>2003.999427189432</v>
+        <v>-0.1078286558345642</v>
       </c>
       <c r="D13">
-        <v>4.108141877101131E-05</v>
-      </c>
-      <c r="E13">
-        <v>-53.336</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G13">
-        <v>25</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.6910063898622782</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>469</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13">
+        <v>22.82</v>
       </c>
       <c r="I13">
-        <v>25</v>
+        <v>4.699</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.00395</t>
-        </is>
-      </c>
-      <c r="K13">
-        <v>6134</v>
-      </c>
-      <c r="L13">
-        <v>1496</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>black</t>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>blue</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gironde</t>
+          <t>Loire</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CB 138</t>
+          <t>CB 28</t>
         </is>
       </c>
       <c r="C14">
-        <v>2003.999899669879</v>
+        <v>0.1466673104752038</v>
       </c>
       <c r="D14">
-        <v>0.002758105090253237</v>
-      </c>
-      <c r="E14">
-        <v>-27.084</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G14">
-        <v>317</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.5878007508186953</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>67</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.00328</t>
+        </is>
+      </c>
+      <c r="H14">
+        <v>9.651</v>
       </c>
       <c r="I14">
-        <v>317</v>
+        <v>2.393</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.00395</t>
-        </is>
-      </c>
-      <c r="K14">
-        <v>166.3</v>
-      </c>
-      <c r="L14">
-        <v>40.43</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1381,51 +1223,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CB 138</t>
+          <t>CB 52</t>
         </is>
       </c>
       <c r="C15">
-        <v>1997.000000742467</v>
+        <v>-0.2348596750369276</v>
       </c>
       <c r="D15">
-        <v>7.313514042862107E-06</v>
-      </c>
-      <c r="E15">
-        <v>-12.972</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G15">
-        <v>317</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.3812616556539971</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>108</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H15">
+        <v>44.31</v>
       </c>
       <c r="I15">
-        <v>317</v>
+        <v>10.99</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.00195</t>
-        </is>
-      </c>
-      <c r="K15">
-        <v>264.8</v>
-      </c>
-      <c r="L15">
-        <v>38.87</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1439,169 +1270,136 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CB 138</t>
+          <t>CB 101</t>
         </is>
       </c>
       <c r="C16">
-        <v>1996.999987970221</v>
+        <v>-0.4588235294117647</v>
       </c>
       <c r="D16">
-        <v>5.583008280594852E-07</v>
-      </c>
-      <c r="E16">
-        <v>-114.33</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G16">
-        <v>317</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.07580507582630139</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>121</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.00395</t>
+        </is>
+      </c>
+      <c r="H16">
+        <v>1492</v>
       </c>
       <c r="I16">
-        <v>317</v>
+        <v>470.3</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.00395</t>
-        </is>
-      </c>
-      <c r="K16">
-        <v>941</v>
-      </c>
-      <c r="L16">
-        <v>276.3</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>orange</t>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>red</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Gironde</t>
+          <t>Seine</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CB 153</t>
+          <t>CB 118</t>
         </is>
       </c>
       <c r="C17">
-        <v>1993.5</v>
+        <v>-0.5058823529411764</v>
       </c>
       <c r="D17">
-        <v>0.06490311995828388</v>
-      </c>
-      <c r="E17">
-        <v>-18.764</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G17">
-        <v>1585</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.04787513425578198</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.00395</t>
+        </is>
+      </c>
+      <c r="H17">
+        <v>6134</v>
       </c>
       <c r="I17">
-        <v>1585</v>
+        <v>1496</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.0782</t>
-        </is>
-      </c>
-      <c r="K17">
-        <v>70.79000000000001</v>
-      </c>
-      <c r="L17">
-        <v>38.1</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>blue</t>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>black</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Loire</t>
+          <t>Seine</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CB 153</t>
+          <t>CB 138</t>
         </is>
       </c>
       <c r="C18">
-        <v>1997.979277956876</v>
+        <v>-0.45</v>
       </c>
       <c r="D18">
-        <v>0.00244167731300414</v>
-      </c>
-      <c r="E18">
-        <v>-10.18</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G18">
-        <v>1585</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.08216685088135103</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>317</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.00395</t>
+        </is>
+      </c>
+      <c r="H18">
+        <v>941</v>
       </c>
       <c r="I18">
-        <v>1585</v>
+        <v>276.3</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.00195</t>
-        </is>
-      </c>
-      <c r="K18">
-        <v>71.05</v>
-      </c>
-      <c r="L18">
-        <v>18.39</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>blue</t>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>orange</t>
         </is>
       </c>
     </row>
@@ -1617,47 +1415,36 @@
         </is>
       </c>
       <c r="C19">
-        <v>2004.000134596597</v>
+        <v>-0.3382352941176471</v>
       </c>
       <c r="D19">
-        <v>0.0007926457634600854</v>
-      </c>
-      <c r="E19">
-        <v>-132.86</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G19">
+        <v>0.2000412503826685</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F19">
         <v>1585</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.00395</t>
+        </is>
+      </c>
+      <c r="H19">
+        <v>252.3</v>
       </c>
       <c r="I19">
-        <v>1585</v>
+        <v>96.58</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.00395</t>
-        </is>
-      </c>
-      <c r="K19">
-        <v>252.3</v>
-      </c>
-      <c r="L19">
-        <v>96.58</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>green</t>
         </is>
@@ -1666,7 +1453,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gironde</t>
+          <t>Seine</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1675,47 +1462,36 @@
         </is>
       </c>
       <c r="C20">
-        <v>1994.999965762697</v>
+        <v>0.04117647058823529</v>
       </c>
       <c r="D20">
-        <v>0.01061136854126266</v>
-      </c>
-      <c r="E20">
-        <v>-3.6901</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G20">
+        <v>0.8823857809914144</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F20">
         <v>469</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.00395</t>
+        </is>
+      </c>
+      <c r="H20">
+        <v>78.79000000000001</v>
       </c>
       <c r="I20">
-        <v>469</v>
+        <v>20.86</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="K20">
-        <v>43.26</v>
-      </c>
-      <c r="L20">
-        <v>14.4</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1724,56 +1500,45 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Loire</t>
+          <t>Seine</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CB 180</t>
+          <t>CB 28</t>
         </is>
       </c>
       <c r="C21">
-        <v>1999.999999864742</v>
+        <v>-0.4941176470588235</v>
       </c>
       <c r="D21">
-        <v>0.01320606504077958</v>
-      </c>
-      <c r="E21">
-        <v>-1.0034</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="G21">
-        <v>469</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.05396872687882119</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>67</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.00617</t>
+        </is>
+      </c>
+      <c r="H21">
+        <v>93.95</v>
       </c>
       <c r="I21">
-        <v>469</v>
+        <v>18.05</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.00195</t>
-        </is>
-      </c>
-      <c r="K21">
-        <v>22.82</v>
-      </c>
-      <c r="L21">
-        <v>4.528</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -1787,53 +1552,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CB 180</t>
+          <t>CB 52</t>
         </is>
       </c>
       <c r="C22">
-        <v>2011.590389075053</v>
+        <v>-0.5147058823529411</v>
       </c>
       <c r="D22">
-        <v>0.889763991224097</v>
-      </c>
-      <c r="E22">
-        <v>-0.64141</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G22">
-        <v>469</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ng/g lw</t>
-        </is>
+        <v>0.04366108966641367</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>108</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.00395</t>
+        </is>
+      </c>
+      <c r="H22">
+        <v>502.2</v>
       </c>
       <c r="I22">
-        <v>469</v>
+        <v>126.2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.00395</t>
-        </is>
-      </c>
-      <c r="K22">
-        <v>78.79000000000001</v>
-      </c>
-      <c r="L22">
-        <v>20.86</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>blue</t>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>yellow</t>
         </is>
       </c>
     </row>
